--- a/16172-LAB SP-ITE16-M306.xlsx
+++ b/16172-LAB SP-ITE16-M306.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\16172-Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
   <si>
     <t>NAME (LAST NAME, FIRST NAME)</t>
   </si>
@@ -196,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +278,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,22 +619,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="6" customWidth="1"/>
     <col min="2" max="2" width="39.453125" style="7" customWidth="1"/>
-    <col min="3" max="8" width="5.6328125" style="6" customWidth="1"/>
-    <col min="9" max="14" width="5.6328125" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="14.453125" style="7"/>
+    <col min="3" max="10" width="5.6328125" style="6" customWidth="1"/>
+    <col min="11" max="13" width="5.6328125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="5.6328125" style="6" customWidth="1"/>
+    <col min="15" max="17" width="14.453125" style="6"/>
+    <col min="18" max="16384" width="14.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -650,8 +664,17 @@
       <c r="J1" s="3">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="16">
+        <v>2.14</v>
+      </c>
+      <c r="L1" s="16">
+        <v>2.16</v>
+      </c>
+      <c r="M1" s="16">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -659,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -667,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -678,15 +701,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -702,14 +728,14 @@
       <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -720,7 +746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -731,11 +757,11 @@
       <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -752,8 +778,17 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -766,22 +801,25 @@
       <c r="G10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -790,8 +828,17 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -813,14 +860,17 @@
       <c r="G13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -828,7 +878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -836,7 +886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -849,11 +899,11 @@
       <c r="G16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -861,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -869,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -884,11 +934,19 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="J19" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -896,7 +954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -909,11 +967,11 @@
       <c r="G21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -935,8 +993,11 @@
       <c r="G22" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -944,8 +1005,17 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -953,7 +1023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -961,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -969,7 +1039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -980,7 +1050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -1002,14 +1072,17 @@
       <c r="G28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -1024,11 +1097,19 @@
         <v>39</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="J29" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -1039,7 +1120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -1047,7 +1128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -1055,7 +1136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -1063,7 +1144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
@@ -1072,8 +1153,17 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>31</v>
       </c>
@@ -1082,7 +1172,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>32</v>
       </c>
@@ -1093,18 +1183,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J37" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -1113,7 +1203,7 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -1126,11 +1216,11 @@
       <c r="E39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J39" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>36</v>
       </c>
@@ -1147,7 +1237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>37</v>
       </c>
@@ -1155,7 +1245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>38</v>
       </c>
@@ -1163,15 +1253,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K43" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>40</v>
       </c>
@@ -1179,16 +1272,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">

--- a/16172-LAB SP-ITE16-M306.xlsx
+++ b/16172-LAB SP-ITE16-M306.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LABORATORY" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
   <si>
     <t>NAME (LAST NAME, FIRST NAME)</t>
   </si>
@@ -621,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1339,6 +1339,9 @@
       <c r="E1" s="3">
         <v>2.9</v>
       </c>
+      <c r="F1" s="3">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
@@ -1494,6 +1497,9 @@
       <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="F18" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
@@ -1505,7 +1511,9 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
@@ -1515,6 +1523,9 @@
       </c>
       <c r="B20" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1565,6 +1576,9 @@
       <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="F25" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
@@ -1614,6 +1628,9 @@
       <c r="E30" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="F30" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
@@ -1629,6 +1646,9 @@
       </c>
       <c r="B32" s="15" t="s">
         <v>17</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1672,6 +1692,9 @@
       <c r="B36" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F36" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
@@ -1681,6 +1704,9 @@
         <v>11</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
     </row>
